--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -4,38 +4,39 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515" activeTab="3"/>
+    <workbookView windowWidth="20130" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="checichaxun" sheetId="3" r:id="rId2"/>
     <sheet name="zhanzhanchaxun" sheetId="4" r:id="rId3"/>
-    <sheet name="城市搜索" sheetId="5" r:id="rId4"/>
+    <sheet name="yupiaochaxun" sheetId="7" r:id="rId4"/>
+    <sheet name="kuatian" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="SIP服务器ID">#REF!</definedName>
+    <definedName name="SIP服务器地址">#REF!</definedName>
+    <definedName name="SIP服务器端口">#REF!</definedName>
+    <definedName name="SIP服务器域">#REF!</definedName>
+    <definedName name="SIP用户名">#REF!</definedName>
+    <definedName name="SIP用户认证ID">#REF!</definedName>
     <definedName name="本地ip">#REF!</definedName>
     <definedName name="本地活动端口">#REF!</definedName>
-    <definedName name="SIP服务器ID">#REF!</definedName>
-    <definedName name="SIP服务器域">#REF!</definedName>
-    <definedName name="SIP服务器地址">#REF!</definedName>
-    <definedName name="SIP服务器端口">#REF!</definedName>
-    <definedName name="SIP用户名">#REF!</definedName>
-    <definedName name="SIP用户认证ID">#REF!</definedName>
+    <definedName name="测试标题">#REF!</definedName>
     <definedName name="密码">#REF!</definedName>
     <definedName name="提示信息">#REF!</definedName>
-    <definedName name="测试标题">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
   <si>
     <t>=====test_202_详细描述和联系方式都为空给出提示=====</t>
   </si>
   <si>
-    <t>请输入详细描述</t>
+    <t>优化建议</t>
   </si>
   <si>
     <t>test_202_详细描述和联系方式都为空给出提示</t>
@@ -56,9 +57,6 @@
     <t>需要测试环境</t>
   </si>
   <si>
-    <t>请输入手机号</t>
-  </si>
-  <si>
     <t>test_204_联系方式都为空给出提示</t>
   </si>
   <si>
@@ -68,7 +66,7 @@
     <t>服务体验</t>
   </si>
   <si>
-    <t>提交成功!</t>
+    <t>个人中心</t>
   </si>
   <si>
     <t>test_205_意见反馈主流程全部填写</t>
@@ -86,7 +84,7 @@
     <t>success</t>
   </si>
   <si>
-    <t>绑定车次成功</t>
+    <t>行李托运</t>
   </si>
   <si>
     <t>Z78</t>
@@ -95,7 +93,7 @@
     <t>贵阳</t>
   </si>
   <si>
-    <t>北京西</t>
+    <t>娄底</t>
   </si>
   <si>
     <t>K515</t>
@@ -113,19 +111,43 @@
     <t>宁波</t>
   </si>
   <si>
+    <t>绍兴</t>
+  </si>
+  <si>
+    <t>G999</t>
+  </si>
+  <si>
+    <t>error_车次</t>
+  </si>
+  <si>
+    <t>请输入正确的车次号</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>成都</t>
   </si>
   <si>
-    <t>G999</t>
-  </si>
-  <si>
-    <t>error_车次</t>
-  </si>
-  <si>
-    <t>请输入正确的车次号</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>error_重复添加</t>
+  </si>
+  <si>
+    <t>当前行程已绑定，不能重复添加</t>
+  </si>
+  <si>
+    <t>Z178</t>
+  </si>
+  <si>
+    <t>哈尔滨西</t>
+  </si>
+  <si>
+    <t>秦皇岛</t>
+  </si>
+  <si>
+    <t>success_跨天</t>
+  </si>
+  <si>
+    <t>+1天</t>
   </si>
   <si>
     <t>武汉</t>
@@ -134,43 +156,72 @@
     <t>北京</t>
   </si>
   <si>
-    <t>Z36</t>
-  </si>
-  <si>
-    <t>行程绑定成功</t>
+    <t>小时</t>
   </si>
   <si>
     <t>天津</t>
   </si>
   <si>
-    <t>Z160</t>
-  </si>
-  <si>
-    <t>C2004</t>
-  </si>
-  <si>
-    <t>C2005</t>
-  </si>
-  <si>
-    <t>@#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>北</t>
-  </si>
-  <si>
-    <t>站</t>
-  </si>
-  <si>
-    <t>wuhan</t>
-  </si>
-  <si>
-    <t>wh</t>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+  </si>
+  <si>
+    <t>+2天</t>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+  </si>
+  <si>
+    <t>+3天</t>
+  </si>
+  <si>
+    <t>售价:</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>很抱歉，按您的查询条件，当前未找到从武汉到武汉的列车</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -183,7 +234,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,9 +244,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,63 +371,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,66 +387,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -357,13 +415,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,19 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,133 +571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,6 +636,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -621,21 +694,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,145 +714,163 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,19 +1194,19 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="50.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="50.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1173,18 +1249,18 @@
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1192,15 +1268,16 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1208,151 +1285,201 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2">
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1360,101 +1487,143 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1462,56 +1631,144 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="55" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7590" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>=====test_202_详细描述和联系方式都为空给出提示=====</t>
   </si>
@@ -124,15 +124,6 @@
   </si>
   <si>
     <t>C2</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>error_重复添加</t>
-  </si>
-  <si>
-    <t>当前行程已绑定，不能重复添加</t>
   </si>
   <si>
     <t>Z178</t>
@@ -229,12 +220,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,14 +235,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,8 +293,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +319,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,11 +339,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,84 +377,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -403,97 +387,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,84 +568,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,16 +582,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,17 +620,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,30 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -694,6 +663,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -702,10 +686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,133 +698,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -851,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -869,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,13 +1269,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
@@ -1427,55 +1411,34 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1489,7 +1452,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1503,16 +1466,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -1523,16 +1486,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -1543,16 +1506,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1563,16 +1526,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -1583,42 +1546,42 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1596,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1644,72 +1607,72 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1731,35 +1694,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
